--- a/document/T3Q_1팀_간트차트.xlsx
+++ b/document/T3Q_1팀_간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kry11\Documents\GitHub\T3Q_projects_team_1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F95F9D7-8E11-4CE9-90D1-5E9C88154A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BAC9D-8D82-4C74-ABFC-C42344E88BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,18 +961,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -982,7 +978,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:BQ1048569"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1399,17 +1399,17 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="63" t="s">
+      <c r="AD1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -1467,47 +1467,47 @@
       <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -1520,47 +1520,47 @@
       <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="67" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="66" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -1616,86 +1616,86 @@
     </row>
     <row r="6" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71" t="s">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71" t="s">
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71" t="s">
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71" t="s">
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71" t="s">
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
     </row>
     <row r="7" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="5">
         <v>26</v>
       </c>
@@ -12313,6 +12313,12 @@
     <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="R3:AL3"/>
     <mergeCell ref="AM6:AQ6"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:Q4"/>
@@ -12329,12 +12335,6 @@
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="R3:AL3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H37">

--- a/document/T3Q_1팀_간트차트.xlsx
+++ b/document/T3Q_1팀_간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kry11\Documents\GitHub\T3Q_projects_team_1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78BAC9D-8D82-4C74-ABFC-C42344E88BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977EB587-0826-4919-9EDA-521679668D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>추가 필요 기술 활용(크롤링,워드클라우드,태블로)</t>
-  </si>
-  <si>
-    <t>지자체 - 보수 필요 위험물 현장 이미지 전송</t>
   </si>
   <si>
     <t>실시간 동작 기능 구현( 디텍딩, 분류, 저장 )</t>
@@ -262,9 +259,6 @@
   </si>
   <si>
     <t>데이터  전처리</t>
-  </si>
-  <si>
-    <t>사용자- 위험 경보</t>
   </si>
   <si>
     <t>발표 및 멘토링일정</t>
@@ -456,9 +450,6 @@
     <t>최종 보고서용 자료 정리</t>
   </si>
   <si>
-    <t>세부 서비스 기능 구현</t>
-  </si>
-  <si>
     <t>yolov5 오분류율 개선</t>
   </si>
   <si>
@@ -483,15 +474,47 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>최종발표 시연용 웹페이지 기능 구현 및 개선</t>
+    <t>T3Q 플랫폼 탑재</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>지자체 - 보수 필요 위험문 API를 이용한 위치정보 전송</t>
+    <t>시연용 웹페이지 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>T3Q 플랫폼 탑재</t>
+    <t>회원가입, 로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지, 동영상 업로드 및 추론결과 표시</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터프레임 &amp; 지도 마커 연동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 위치정보 갱신 및 데이터프레임 연동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지윤, 박병준</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지윤, 임재원</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신민수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종발표 시연용 웹페이지 개선 및 마무리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 보고서 초안 작성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -964,11 +987,18 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -977,13 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,10 +1371,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF3D85C6"/>
   </sheetPr>
-  <dimension ref="A1:BQ1048569"/>
+  <dimension ref="A1:BQ1048571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AL49" sqref="AL49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1370,18 +1393,18 @@
     <row r="1" spans="1:44" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1399,17 +1422,17 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
+      <c r="AD1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -1467,47 +1490,47 @@
       <c r="C3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="65" t="s">
+      <c r="D3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -1518,49 +1541,49 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -1616,71 +1639,71 @@
     </row>
     <row r="6" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="68" t="s">
-        <v>19</v>
+      <c r="C6" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>18</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
       <c r="N6" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
       <c r="S6" s="62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T6" s="62"/>
       <c r="U6" s="62"/>
       <c r="V6" s="62"/>
       <c r="W6" s="62"/>
       <c r="X6" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="62"/>
       <c r="Z6" s="62"/>
       <c r="AA6" s="62"/>
       <c r="AB6" s="62"/>
       <c r="AC6" s="62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="62"/>
       <c r="AE6" s="62"/>
       <c r="AF6" s="62"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
       <c r="AK6" s="62"/>
       <c r="AL6" s="62"/>
       <c r="AM6" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN6" s="62"/>
       <c r="AO6" s="62"/>
@@ -1689,13 +1712,13 @@
     </row>
     <row r="7" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="5">
         <v>26</v>
       </c>
@@ -1808,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1857,10 +1880,10 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="55">
         <v>44860</v>
@@ -1915,10 +1938,10 @@
         <v>0.2</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="55">
         <v>44860</v>
@@ -1973,10 +1996,10 @@
         <v>0.3</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="55">
         <v>44860</v>
@@ -2034,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2082,10 +2105,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="14">
         <v>44860</v>
@@ -2142,10 +2165,10 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="14">
         <v>44865</v>
@@ -2202,10 +2225,10 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="14">
         <v>44869</v>
@@ -2265,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="14">
         <v>44869</v>
@@ -2371,10 +2394,10 @@
         <v>2.1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14">
         <v>44875</v>
@@ -2434,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="14">
         <v>44875</v>
@@ -2491,10 +2514,10 @@
         <v>2.2999999999999976</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="14">
         <v>44875</v>
@@ -2553,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="14">
         <v>44875</v>
@@ -2609,10 +2632,10 @@
         <v>2.4999999999999947</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="14">
         <v>44875</v>
@@ -2669,10 +2692,10 @@
         <v>2.599999999999993</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="14">
         <v>44874</v>
@@ -2728,10 +2751,10 @@
         <v>2.6999999999999913</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="14">
         <v>44886</v>
@@ -2787,10 +2810,10 @@
         <v>2.7999999999999896</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="14">
         <v>44886</v>
@@ -2847,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
@@ -2899,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="14">
         <v>44872</v>
@@ -2956,10 +2979,10 @@
         <v>3.2000000000000046</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E28" s="14">
         <v>44872</v>
@@ -3016,10 +3039,10 @@
         <v>3.3000000000000078</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="55">
         <v>44886</v>
@@ -3076,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
@@ -3125,10 +3148,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E31" s="55">
         <v>44874</v>
@@ -3185,10 +3208,10 @@
         <v>4.2000000000000055</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="55">
         <v>44879</v>
@@ -3245,10 +3268,10 @@
         <v>4.3000000000000096</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" s="55">
         <v>44879</v>
@@ -3308,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="55">
         <v>44879</v>
@@ -3365,10 +3388,10 @@
         <v>4.5000000000000178</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="55">
         <v>44879</v>
@@ -3425,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="20"/>
@@ -3474,10 +3497,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="14">
         <v>44872</v>
@@ -3534,10 +3557,10 @@
         <v>5.2000000000000064</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="14">
         <v>44872</v>
@@ -3594,10 +3617,10 @@
         <v>5.3000000000000105</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="14">
         <v>44872</v>
@@ -3653,10 +3676,10 @@
         <v>5.4000000000000146</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="14">
         <v>44874</v>
@@ -3665,7 +3688,7 @@
         <v>44879</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" ref="G40:G52" si="2">DAYS360(E40,F40)+1</f>
+        <f t="shared" ref="G40:G53" si="2">DAYS360(E40,F40)+1</f>
         <v>6</v>
       </c>
       <c r="H40" s="22">
@@ -3713,10 +3736,10 @@
         <v>5.500000000000024</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E41" s="14">
         <v>44880</v>
@@ -3773,10 +3796,10 @@
         <v>5.6000000000000316</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="14">
         <v>44880</v>
@@ -3836,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="14">
         <v>44886</v>
@@ -3893,10 +3916,10 @@
         <v>5.8000000000000478</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="14">
         <v>44888</v>
@@ -3956,7 +3979,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" s="14">
         <v>44893</v>
@@ -4013,7 +4036,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="36"/>
@@ -4088,23 +4111,23 @@
         <v>6.1</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E47" s="14">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="F47" s="14">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H47" s="22">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="31"/>
@@ -4124,15 +4147,15 @@
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
       <c r="AE47" s="45"/>
       <c r="AF47" s="45"/>
       <c r="AG47" s="45"/>
       <c r="AH47" s="45"/>
-      <c r="AI47" s="32"/>
+      <c r="AI47" s="45"/>
       <c r="AJ47" s="32"/>
       <c r="AK47" s="32"/>
       <c r="AL47" s="32"/>
@@ -4148,20 +4171,20 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="E48" s="14">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="F48" s="14">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H48" s="15">
         <v>1</v>
@@ -4184,15 +4207,15 @@
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
       <c r="AE48" s="45"/>
       <c r="AF48" s="45"/>
       <c r="AG48" s="45"/>
       <c r="AH48" s="45"/>
-      <c r="AI48" s="32"/>
+      <c r="AI48" s="45"/>
       <c r="AJ48" s="32"/>
       <c r="AK48" s="32"/>
       <c r="AL48" s="32"/>
@@ -4211,20 +4234,20 @@
         <v>89</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E49" s="14">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="F49" s="14">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H49" s="22">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="31"/>
@@ -4244,15 +4267,15 @@
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
       <c r="AE49" s="45"/>
       <c r="AF49" s="45"/>
       <c r="AG49" s="45"/>
       <c r="AH49" s="45"/>
-      <c r="AI49" s="32"/>
+      <c r="AI49" s="45"/>
       <c r="AJ49" s="32"/>
       <c r="AK49" s="32"/>
       <c r="AL49" s="32"/>
@@ -4264,162 +4287,162 @@
     </row>
     <row r="50" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
-      <c r="B50" s="34">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28"/>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28"/>
-      <c r="AK50" s="28"/>
-      <c r="AL50" s="28"/>
-      <c r="AM50" s="28"/>
-      <c r="AN50" s="28"/>
-      <c r="AO50" s="28"/>
-      <c r="AP50" s="28"/>
-      <c r="AQ50" s="28"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1"/>
-      <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
+      <c r="B50" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="14">
+        <v>44893</v>
+      </c>
+      <c r="F50" s="14">
+        <v>44897</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="32"/>
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="32"/>
+      <c r="AP50" s="32"/>
+      <c r="AQ50" s="32"/>
     </row>
     <row r="51" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="34">
-        <v>7.1</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="14">
-        <v>44893</v>
-      </c>
-      <c r="F51" s="14">
-        <v>44895</v>
-      </c>
-      <c r="G51" s="13">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H51" s="15">
-        <v>1</v>
-      </c>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="32"/>
-      <c r="AP51" s="32"/>
-      <c r="AQ51" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="28"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
     </row>
     <row r="52" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="34">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" s="14">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F52" s="14">
-        <v>44903</v>
+        <v>44895</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H52" s="22">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="31"/>
@@ -4444,15 +4467,15 @@
       <c r="AC52" s="33"/>
       <c r="AD52" s="33"/>
       <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
+      <c r="AF52" s="45"/>
+      <c r="AG52" s="45"/>
+      <c r="AH52" s="45"/>
       <c r="AI52" s="33"/>
-      <c r="AJ52" s="45"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="45"/>
-      <c r="AM52" s="45"/>
-      <c r="AN52" s="45"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="33"/>
+      <c r="AL52" s="33"/>
+      <c r="AM52" s="33"/>
+      <c r="AN52" s="33"/>
       <c r="AO52" s="32"/>
       <c r="AP52" s="32"/>
       <c r="AQ52" s="32"/>
@@ -4460,137 +4483,111 @@
     <row r="53" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="34">
-        <v>8</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28"/>
-      <c r="AK53" s="28"/>
-      <c r="AL53" s="28"/>
-      <c r="AM53" s="28"/>
-      <c r="AN53" s="28"/>
-      <c r="AO53" s="28"/>
-      <c r="AP53" s="28"/>
-      <c r="AQ53" s="28"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1"/>
-      <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="14">
+        <v>44897</v>
+      </c>
+      <c r="F53" s="14">
+        <v>44903</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="30"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="45"/>
+      <c r="AK53" s="45"/>
+      <c r="AL53" s="45"/>
+      <c r="AM53" s="45"/>
+      <c r="AN53" s="45"/>
+      <c r="AO53" s="32"/>
+      <c r="AP53" s="32"/>
+      <c r="AQ53" s="32"/>
     </row>
     <row r="54" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
-      <c r="B54" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="14">
-        <v>44896</v>
-      </c>
-      <c r="F54" s="14">
-        <v>44903</v>
-      </c>
-      <c r="G54" s="13">
-        <f>DAYS360(E54,F54)+1</f>
+      <c r="B54" s="34">
         <v>8</v>
       </c>
-      <c r="H54" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="32"/>
-      <c r="AP54" s="32"/>
-      <c r="AQ54" s="32"/>
+      <c r="C54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
@@ -4620,14 +4617,14 @@
     </row>
     <row r="55" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
-      <c r="B55" s="34">
-        <v>8.1999999999999886</v>
+      <c r="B55" s="7">
+        <v>8.1</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E55" s="14">
         <v>44896</v>
@@ -4706,14 +4703,14 @@
     </row>
     <row r="56" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
-      <c r="B56" s="7">
-        <v>8.2999999999999812</v>
+      <c r="B56" s="34">
+        <v>8.1999999999999886</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" s="14">
         <v>44896</v>
@@ -4726,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I56" s="30"/>
       <c r="J56" s="31"/>
@@ -4793,51 +4790,62 @@
     <row r="57" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="7">
-        <v>9</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="35"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="35"/>
-      <c r="AG57" s="35"/>
-      <c r="AH57" s="35"/>
-      <c r="AI57" s="35"/>
-      <c r="AJ57" s="35"/>
-      <c r="AK57" s="35"/>
-      <c r="AL57" s="35"/>
-      <c r="AM57" s="35"/>
-      <c r="AN57" s="35"/>
-      <c r="AO57" s="35"/>
-      <c r="AP57" s="35"/>
-      <c r="AQ57" s="35"/>
+        <v>8.2999999999999812</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="14">
+        <v>44896</v>
+      </c>
+      <c r="F57" s="14">
+        <v>44903</v>
+      </c>
+      <c r="G57" s="13">
+        <f>DAYS360(E57,F57)+1</f>
+        <v>8</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0</v>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="33"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="33"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="33"/>
+      <c r="AI57" s="45"/>
+      <c r="AJ57" s="45"/>
+      <c r="AK57" s="45"/>
+      <c r="AL57" s="45"/>
+      <c r="AM57" s="45"/>
+      <c r="AN57" s="45"/>
+      <c r="AO57" s="32"/>
+      <c r="AP57" s="32"/>
+      <c r="AQ57" s="32"/>
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
@@ -4868,23 +4876,23 @@
     <row r="58" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="7">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E58" s="14">
-        <v>44900</v>
+        <v>44897</v>
       </c>
       <c r="F58" s="14">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="G58" s="13">
         <f>DAYS360(E58,F58)+1</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H58" s="22">
         <v>0</v>
@@ -4915,15 +4923,15 @@
       <c r="AF58" s="33"/>
       <c r="AG58" s="33"/>
       <c r="AH58" s="33"/>
-      <c r="AI58" s="32"/>
-      <c r="AJ58" s="32"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
       <c r="AK58" s="45"/>
-      <c r="AL58" s="45"/>
-      <c r="AM58" s="45"/>
-      <c r="AN58" s="45"/>
-      <c r="AO58" s="45"/>
-      <c r="AP58" s="45"/>
-      <c r="AQ58" s="45"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="32"/>
+      <c r="AP58" s="32"/>
+      <c r="AQ58" s="32"/>
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1"/>
@@ -4954,62 +4962,51 @@
     <row r="59" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="7">
-        <v>9.1999999999999886</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="14">
-        <v>44900</v>
-      </c>
-      <c r="F59" s="14">
-        <v>44908</v>
-      </c>
-      <c r="G59" s="13">
-        <f>DAYS360(E59,F59)+1</f>
         <v>9</v>
       </c>
-      <c r="H59" s="22">
-        <v>0</v>
-      </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="32"/>
-      <c r="AJ59" s="32"/>
-      <c r="AK59" s="45"/>
-      <c r="AL59" s="45"/>
-      <c r="AM59" s="45"/>
-      <c r="AN59" s="45"/>
-      <c r="AO59" s="45"/>
-      <c r="AP59" s="45"/>
-      <c r="AQ59" s="45"/>
+      <c r="C59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1"/>
@@ -5040,13 +5037,13 @@
     <row r="60" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E60" s="14">
         <v>44900</v>
@@ -5126,13 +5123,13 @@
     <row r="61" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="7">
-        <v>9.4</v>
+        <v>9.1999999999999886</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E61" s="14">
         <v>44900</v>
@@ -5211,48 +5208,63 @@
     </row>
     <row r="62" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AP62" s="1"/>
-      <c r="AQ62" s="1"/>
+      <c r="B62" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="14">
+        <v>44900</v>
+      </c>
+      <c r="F62" s="14">
+        <v>44908</v>
+      </c>
+      <c r="G62" s="13">
+        <f>DAYS360(E62,F62)+1</f>
+        <v>9</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0</v>
+      </c>
+      <c r="I62" s="30"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="32"/>
+      <c r="AK62" s="45"/>
+      <c r="AL62" s="45"/>
+      <c r="AM62" s="45"/>
+      <c r="AN62" s="45"/>
+      <c r="AO62" s="45"/>
+      <c r="AP62" s="45"/>
+      <c r="AQ62" s="45"/>
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1"/>
@@ -5282,48 +5294,63 @@
     </row>
     <row r="63" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
+      <c r="B63" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="14">
+        <v>44900</v>
+      </c>
+      <c r="F63" s="14">
+        <v>44908</v>
+      </c>
+      <c r="G63" s="13">
+        <f>DAYS360(E63,F63)+1</f>
+        <v>9</v>
+      </c>
+      <c r="H63" s="22">
+        <v>0</v>
+      </c>
+      <c r="I63" s="30"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="45"/>
+      <c r="AL63" s="45"/>
+      <c r="AM63" s="45"/>
+      <c r="AN63" s="45"/>
+      <c r="AO63" s="45"/>
+      <c r="AP63" s="45"/>
+      <c r="AQ63" s="45"/>
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1"/>
@@ -11528,8 +11555,148 @@
       <c r="BP150" s="1"/>
       <c r="BQ150" s="1"/>
     </row>
-    <row r="151" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="152" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="42"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+      <c r="AJ151" s="1"/>
+      <c r="AK151" s="1"/>
+      <c r="AL151" s="1"/>
+      <c r="AM151" s="1"/>
+      <c r="AN151" s="1"/>
+      <c r="AO151" s="1"/>
+      <c r="AP151" s="1"/>
+      <c r="AQ151" s="1"/>
+      <c r="AR151" s="1"/>
+      <c r="AS151" s="1"/>
+      <c r="AT151" s="1"/>
+      <c r="AU151" s="1"/>
+      <c r="AV151" s="1"/>
+      <c r="AW151" s="1"/>
+      <c r="AX151" s="1"/>
+      <c r="AY151" s="1"/>
+      <c r="AZ151" s="1"/>
+      <c r="BA151" s="1"/>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1"/>
+      <c r="BI151" s="1"/>
+      <c r="BJ151" s="1"/>
+      <c r="BK151" s="1"/>
+      <c r="BL151" s="1"/>
+      <c r="BM151" s="1"/>
+      <c r="BN151" s="1"/>
+      <c r="BO151" s="1"/>
+      <c r="BP151" s="1"/>
+      <c r="BQ151" s="1"/>
+    </row>
+    <row r="152" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+      <c r="AJ152" s="1"/>
+      <c r="AK152" s="1"/>
+      <c r="AL152" s="1"/>
+      <c r="AM152" s="1"/>
+      <c r="AN152" s="1"/>
+      <c r="AO152" s="1"/>
+      <c r="AP152" s="1"/>
+      <c r="AQ152" s="1"/>
+      <c r="AR152" s="1"/>
+      <c r="AS152" s="1"/>
+      <c r="AT152" s="1"/>
+      <c r="AU152" s="1"/>
+      <c r="AV152" s="1"/>
+      <c r="AW152" s="1"/>
+      <c r="AX152" s="1"/>
+      <c r="AY152" s="1"/>
+      <c r="AZ152" s="1"/>
+      <c r="BA152" s="1"/>
+      <c r="BB152" s="1"/>
+      <c r="BC152" s="1"/>
+      <c r="BD152" s="1"/>
+      <c r="BE152" s="1"/>
+      <c r="BF152" s="1"/>
+      <c r="BG152" s="1"/>
+      <c r="BH152" s="1"/>
+      <c r="BI152" s="1"/>
+      <c r="BJ152" s="1"/>
+      <c r="BK152" s="1"/>
+      <c r="BL152" s="1"/>
+      <c r="BM152" s="1"/>
+      <c r="BN152" s="1"/>
+      <c r="BO152" s="1"/>
+      <c r="BP152" s="1"/>
+      <c r="BQ152" s="1"/>
+    </row>
     <row r="153" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="154" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="155" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12292,8 +12459,8 @@
     <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1048552" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048553" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048554" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048555" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -12311,14 +12478,10 @@
     <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="R3:AL3"/>
     <mergeCell ref="AM6:AQ6"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:Q4"/>
@@ -12335,30 +12498,36 @@
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="R3:AL3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>LEN(TRIM(H37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 H34:H35 H27:H28">
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>LEN(TRIM(H27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>LEN(TRIM(H32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>LEN(TRIM(H33))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H40 H52 H58:H61 H8:H11 H27:H28 H47 H49 H13:H23 H54:H56">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="H31:H40 H60:H63 H8:H11 H27:H28 H13:H23 H50 H53 H55:H58">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12368,6 +12537,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H45">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF6FA8DC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H49">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12377,7 +12556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H52">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12387,7 +12566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12397,7 +12576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12407,18 +12586,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF6FA8DC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12431,6 +12600,6 @@
     <hyperlink ref="AD1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74763888120651245" right="0.74763888120651245" top="0.98402780294418335" bottom="0.98402780294418335" header="0.51152777671813965" footer="0.51152777671813965"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>